--- a/data/income_statement/3digits/total/107_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/107_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>107-Manufacture of bakery and farinaceous products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>107-Manufacture of bakery and farinaceous products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8698130.48783</v>
@@ -959,37 +865,42 @@
         <v>11459232.38538</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>12231177.264</v>
+        <v>12651831.36942</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13871074.80792</v>
+        <v>15246911.73639</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13654193.74808</v>
+        <v>17777257.78383</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>16030939.02549</v>
+        <v>19970593.95423</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22179112.00516</v>
+        <v>22183129.14467</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>26063188.14313</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>33191748.89844</v>
+        <v>33217143.09718</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>41735346.69056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>42018344.67577</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>49413395.927</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7564047.65085</v>
+        <v>7564047.650850001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>8437804.19015</v>
@@ -998,34 +909,39 @@
         <v>9797904.619100001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>10343347.49245</v>
+        <v>10504164.30442</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11913664.34875</v>
+        <v>12628905.26291</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11568955.92402</v>
+        <v>14627818.27812</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13398966.75219</v>
+        <v>16467773.53826</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18519130.09836</v>
+        <v>18523153.36115</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>21415581.15862</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26740873.68514</v>
+        <v>26765709.53536</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>33803001.51813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34077799.75951</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>38886773.95</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>962899.6490200001</v>
@@ -1037,34 +953,39 @@
         <v>1532957.07869</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1761782.96414</v>
+        <v>2014187.37367</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1857475.85479</v>
+        <v>2506643.83832</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1994602.53856</v>
+        <v>3029544.798549999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2448971.19155</v>
+        <v>3302624.99077</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>3355387.10425</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4274503.40208</v>
+        <v>4274503.402079999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5879002.24368</v>
+        <v>5879446.34258</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7295166.33111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7301057.923979999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9746718.593</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>171183.18796</v>
@@ -1076,73 +997,83 @@
         <v>128370.68759</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>126046.80741</v>
+        <v>133479.69133</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>99934.60437999999</v>
+        <v>111362.63516</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>90635.2855</v>
+        <v>119894.70716</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>183001.08175</v>
+        <v>200195.4252</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>304594.80255</v>
+        <v>304588.67927</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>373103.58243</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>571872.96962</v>
+        <v>571987.21924</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>637178.84132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>639486.99228</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>779903.384</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>980796.76878</v>
+        <v>980796.7687799999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>988644.6587200001</v>
+        <v>988644.6587199999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1035652.73927</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1039253.26328</v>
+        <v>1050856.72579</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1019940.68689</v>
+        <v>1216265.36685</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>899182.5836100001</v>
+        <v>1368617.16825</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1259012.91291</v>
+        <v>1556009.45512</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1630875.8715</v>
+        <v>1630894.43525</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1891477.82825</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2354088.20726</v>
+        <v>2354138.91811</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2907381.416089999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2911936.04766</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3160548.724</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>170418.00175</v>
@@ -1154,34 +1085,39 @@
         <v>162972.60663</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>190918.97606</v>
+        <v>194677.77357</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>128582.69842</v>
+        <v>167399.1531</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>112181.84402</v>
+        <v>177197.47062</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>162634.46727</v>
+        <v>189064.4891</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>234199.78426</v>
+        <v>234200.92376</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>256707.17102</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>297079.82178</v>
+        <v>297124.67924</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>394320.70408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>398232.38859</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>513402.117</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>786820.5848200001</v>
@@ -1190,37 +1126,42 @@
         <v>813722.86619</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>846508.95568</v>
+        <v>846508.9556799999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>815787.1236899999</v>
+        <v>823631.7886900001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>882947.80263</v>
+        <v>1034349.97874</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>774485.5184600001</v>
+        <v>1170077.36031</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1077412.87026</v>
+        <v>1344244.26331</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1373006.28777</v>
+        <v>1373010.03376</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1595847.36604</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1982641.91256</v>
+        <v>1982646.13036</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2464886.32153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2465486.05719</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2605682.79</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23558.18221</v>
@@ -1235,34 +1176,39 @@
         <v>32547.16353</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8410.18584</v>
+        <v>14516.23501</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12515.22113</v>
+        <v>21342.33732</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>18965.57538</v>
+        <v>22700.70271</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>23669.79947</v>
+        <v>23683.47773</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>38923.29119</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>74366.47292</v>
+        <v>74368.10851000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48174.39048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>48217.60187999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>41463.817</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7717333.719050001</v>
+        <v>7717333.71905</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>8671597.857139999</v>
@@ -1271,37 +1217,42 @@
         <v>10423579.64611</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11191924.00072</v>
+        <v>11600974.64363</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12851134.12103</v>
+        <v>14030646.36954</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12755011.16447</v>
+        <v>16408640.61558</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14771926.11258</v>
+        <v>18414584.49911</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>20548236.13366</v>
+        <v>20552234.70942</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>24171710.31488</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30837660.69118</v>
+        <v>30863004.17907</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>38827965.27447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39106408.62811</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>46252847.203</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>6079430.67103</v>
+        <v>6079430.671030001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>7009257.45043</v>
@@ -1310,73 +1261,83 @@
         <v>8560427.707349999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8920146.870069999</v>
+        <v>9284502.296250001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10001707.49619</v>
+        <v>10854723.89319</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10478051.32835</v>
+        <v>12999246.09002</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11681625.0321</v>
+        <v>14239607.88109</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16073315.38665</v>
+        <v>16076600.94353</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>19087922.25217</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23817176.97687</v>
+        <v>23839489.31282</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>30433437.70571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>30646849.21676</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>36279419.932</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4616897.587199999</v>
+        <v>4616897.5872</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>5448955.718239999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6776873.86144</v>
+        <v>6776873.861440001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7470263.098999999</v>
+        <v>7760370.984350001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8350383.353129999</v>
+        <v>9083681.948050002</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8716357.6894</v>
+        <v>11063487.7965</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9944194.98009</v>
+        <v>12204965.51989</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13474634.45078</v>
+        <v>13476829.18661</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>15783500.36956</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>19732062.13558</v>
+        <v>19743036.14947</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>24451985.09777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24610744.72662</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29478198.986</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1223012.62012</v>
@@ -1388,34 +1349,39 @@
         <v>1425451.6384</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1122578.23317</v>
+        <v>1196816.37198</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1276746.44508</v>
+        <v>1396464.24716</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1371483.34583</v>
+        <v>1504803.68708</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1332955.16944</v>
+        <v>1567814.64267</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1936621.75493</v>
+        <v>1937598.94939</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2497507.02408</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3027150.83364</v>
+        <v>3037290.01032</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4511523.44049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4558935.14722</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5057648.611</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>119278.53578</v>
@@ -1427,34 +1393,39 @@
         <v>141951.67225</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>141400.67617</v>
+        <v>141410.07819</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>194605.57818</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>235842.1113</v>
+        <v>237832.28034</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>226858.36364</v>
+        <v>228675.21959</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>303368.19468</v>
+        <v>303531.31727</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>415677.19067</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>556166.97984</v>
+        <v>557366.12522</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>735968.2290599999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>742466.3041900001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>780650.821</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>120241.92793</v>
@@ -1472,13 +1443,13 @@
         <v>179972.1198</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>154368.18182</v>
+        <v>193122.3261</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>177616.51893</v>
+        <v>238152.49894</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>358690.98626</v>
+        <v>358641.49026</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>391237.66786</v>
@@ -1487,13 +1458,18 @@
         <v>501797.02781</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>733960.93839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>734703.03873</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>962921.514</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1637903.04802</v>
@@ -1505,34 +1481,39 @@
         <v>1863151.93876</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2271777.13065</v>
+        <v>2316472.34738</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2849426.62484</v>
+        <v>3175922.476350001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2276959.83612</v>
+        <v>3409394.52556</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3090301.08048</v>
+        <v>4174976.618019999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4474920.74701</v>
+        <v>4475633.765889999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5083788.06271</v>
+        <v>5083788.062710001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7020483.71431</v>
+        <v>7023514.86625</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>8394527.56876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>8459559.411350001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9973427.271</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1138341.45569</v>
@@ -1544,34 +1525,39 @@
         <v>1517651.23552</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1627302.51083</v>
+        <v>1659201.42353</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2164937.80342</v>
+        <v>2318034.219440001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1795084.78385</v>
+        <v>2599863.58587</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2176313.19993</v>
+        <v>2955512.51747</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3312572.34638</v>
+        <v>3314283.81817</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3783184.43555</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4838472.60183</v>
+        <v>4848814.24955</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5822487.08187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5881482.40572</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6572526.771</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13751.31784</v>
@@ -1583,16 +1569,16 @@
         <v>12144.96738</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>14340.15507</v>
+        <v>14653.63742</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>19720.25510999999</v>
+        <v>21314.10181</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>10961.5835</v>
+        <v>20964.87578</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14618.81322</v>
+        <v>26124.27788</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>39020.19306000001</v>
@@ -1601,16 +1587,21 @@
         <v>39766.7913</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>50959.20944</v>
+        <v>52053.77832</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>70532.09497000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>70558.11055</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>89893.936</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>690204.3649299999</v>
@@ -1622,34 +1613,39 @@
         <v>924293.24417</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>931418.2278100002</v>
+        <v>956476.09293</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1390861.87526</v>
+        <v>1518509.07746</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1049154.04032</v>
+        <v>1694372.72799</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1296113.88106</v>
+        <v>1902870.28613</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2137661.552</v>
+        <v>2137915.3537</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2485680.18846</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3254360.80334</v>
+        <v>3255090.08635</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3940092.13742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3966908.15927</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4499165.091</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>434385.77292</v>
@@ -1661,37 +1657,42 @@
         <v>581213.02397</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>681544.12795</v>
+        <v>688071.6931799999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>754355.6730500001</v>
+        <v>778211.0401700001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>734969.16003</v>
+        <v>884525.9821000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>865580.5056500001</v>
+        <v>1026517.95346</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1135890.60132</v>
+        <v>1137348.27141</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1257737.45579</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1533152.58905</v>
+        <v>1541670.38488</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1811862.84948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1844016.1359</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1983467.744</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>499561.5923300001</v>
+        <v>499561.59233</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>352568.82067</v>
@@ -1700,34 +1701,39 @@
         <v>345500.70324</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>644474.6198199999</v>
+        <v>657270.92385</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>684488.8214200001</v>
+        <v>857888.25691</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>481875.05227</v>
+        <v>809530.93969</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>913987.88055</v>
+        <v>1219464.10055</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1162348.40063</v>
+        <v>1161349.94772</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1300603.62716</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2182011.11248</v>
+        <v>2174700.6167</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2572040.48689</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2578077.00563</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3400900.5</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>443872.62464</v>
@@ -1736,37 +1742,42 @@
         <v>264677.24411</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>429409.3256900001</v>
+        <v>429409.32569</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>250687.00709</v>
+        <v>257818.93785</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>470160.3482</v>
+        <v>525987.71456</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>398929.0613300001</v>
+        <v>498369.07291</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>695400.2114800001</v>
+        <v>793759.0103099999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>746605.3572299998</v>
+        <v>811516.56952</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1241524.48331</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3233215.22006</v>
+        <v>3237289.23462</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3022792.27378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3024739.34908</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5526915.384</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>41150.09265</v>
@@ -1790,7 +1801,7 @@
         <v>55409.83905</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15172.71822</v>
+        <v>71511.21335999999</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>60388.77862</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>868085.40683</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>52268.865</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>83501.12994</v>
@@ -1823,13 +1839,13 @@
         <v>75316.30712</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>74514.11010999999</v>
+        <v>89535.11653</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>48029.42768</v>
+        <v>54039.93089</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>68273.51234999999</v>
+        <v>73373.00235</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>139746.84461</v>
@@ -1838,13 +1854,18 @@
         <v>180198.34473</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>95444.58956000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>95453.91604</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>89514.258</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>35803.6943</v>
@@ -1856,34 +1877,39 @@
         <v>84152.45415999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>34292.95109</v>
+        <v>34422.46217</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>46294.24854</v>
+        <v>47009.43245</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>41743.35813</v>
+        <v>52890.45387999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>73471.11344999999</v>
+        <v>80609.57363999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>86118.50693</v>
+        <v>87515.4014</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>163366.88176</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>289656.04513</v>
+        <v>289670.42807</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>658956.84737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>658987.76884</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>631893.496</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>221.98647</v>
@@ -1907,7 +1933,7 @@
         <v>1165.55603</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>977.28292</v>
+        <v>977.2829199999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>269.90266</v>
@@ -1916,13 +1942,18 @@
         <v>2856.53537</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2585.86989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2585.869889999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4672.299</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1576.8659</v>
@@ -1934,16 +1965,16 @@
         <v>47987.76472</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>628.9577999999999</v>
+        <v>668.7504</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>874.23474</v>
+        <v>1008.13074</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>600.53431</v>
+        <v>737.16328</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>387.48216</v>
+        <v>629.43201</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2953.04655</v>
@@ -1955,13 +1986,18 @@
         <v>15159.45197</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1899.17197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1904.12197</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7184.72</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1186.03089</v>
@@ -1970,7 +2006,7 @@
         <v>506.61245</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>498.6464500000001</v>
+        <v>498.64645</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>6068.497290000001</v>
@@ -1982,7 +2018,7 @@
         <v>11581.31492</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3504.67073</v>
+        <v>3505.82681</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>579.67799</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>8080.79664</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>33814.837</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>233009.2717</v>
@@ -2012,34 +2053,39 @@
         <v>216234.80691</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>109220.5118</v>
+        <v>116048.29189</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>252945.8416</v>
+        <v>307597.67512</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>192679.55905</v>
+        <v>265355.55448</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>459025.38213</v>
+        <v>543296.47136</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>501742.28286</v>
+        <v>501822.0878100001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>773716.9101099999</v>
+        <v>773716.9101100002</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2547738.83186</v>
+        <v>2551763.37081</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1231651.06787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1231946.95317</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4534815.655</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1842.11941</v>
@@ -2057,7 +2103,7 @@
         <v>477.87469</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1379.46328</v>
+        <v>1521.76714</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>605.35676</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>629.46208</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>744.827</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>20.04292</v>
@@ -2090,7 +2141,7 @@
         <v>186.46637</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>52.92529000000001</v>
+        <v>52.92529</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>24.86136</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>61.52025999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>94.502</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>45561.39046</v>
+        <v>45561.39046000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>9761.651169999999</v>
@@ -2129,34 +2185,39 @@
         <v>13343.79247</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>32007.09675</v>
+        <v>32141.94374</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>41088.98844000001</v>
+        <v>41415.44137</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>48877.32089</v>
+        <v>49194.30204</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>53799.16285</v>
+        <v>54494.80312</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>69789.98536000001</v>
+        <v>71786.51309000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>99496.16436999998</v>
+        <v>99496.16437</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>127009.16548</v>
+        <v>127044.25815</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>155397.54131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>157003.53336</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>171911.925</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>267122.52263</v>
@@ -2168,34 +2229,39 @@
         <v>165261.51391</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>105982.84688</v>
+        <v>115127.87506</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>193985.33914</v>
+        <v>244871.80863</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>226866.21656</v>
+        <v>282201.54079</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>342408.1902599999</v>
+        <v>426052.77708</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>418163.98641</v>
+        <v>418759.77728</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>524957.8746999999</v>
+        <v>524957.8747</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1501543.52674</v>
+        <v>1511070.02482</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>789518.3658799999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>790531.7284400001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3005749.447</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1542.67203</v>
@@ -2207,55 +2273,60 @@
         <v>4779.514730000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10604.45449</v>
+        <v>10724.30257</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>2075.02324</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1659.99797</v>
+        <v>1664.95301</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1057.16623</v>
+        <v>1102.71012</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1943.41626</v>
+        <v>1947.87438</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>2357.83059</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2224.2187</v>
+        <v>2228.40405</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2103.83329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2122.68289</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3064.045</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10910.04287</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8373.000370000002</v>
+        <v>8373.00037</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>5248.35587</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8844.999870000001</v>
+        <v>9162.911330000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7485.148450000001</v>
+        <v>8694.56343</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8663.49135</v>
+        <v>9065.432769999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8770.778199999999</v>
+        <v>10253.60811</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>8926.707550000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>18348.32399</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>28384.201</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>15.31809</v>
@@ -2282,10 +2358,10 @@
         <v>2593.93648</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3715.26287</v>
+        <v>3715.262869999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>369.57164</v>
+        <v>806.71351</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>329.4971</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2057.98005</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5567.402</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>236247.3382</v>
@@ -2324,34 +2405,39 @@
         <v>130109.17665</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>73751.04902000001</v>
+        <v>82021.17579000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>169213.69319</v>
+        <v>218650.35526</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>197442.56344</v>
+        <v>251764.77203</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>307152.7902399999</v>
+        <v>389144.042</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>351688.5762</v>
+        <v>352234.2617799999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>477213.5590000001</v>
+        <v>477213.559</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1441890.74492</v>
+        <v>1451327.74897</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>718208.8512699999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>718389.00552</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2892808.396</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2112.12566</v>
@@ -2360,16 +2446,16 @@
         <v>1278.08244</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>716.85865</v>
+        <v>716.8586499999999</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0.04008</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>407.75311</v>
+        <v>550.05697</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1090.59467</v>
+        <v>1243.66159</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>1008.62349</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>794.4941899999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6086.566</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.51497</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>7.606</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16284.51081</v>
@@ -2444,31 +2540,36 @@
         <v>12405.77031</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>14434.60687</v>
+        <v>14532.69545</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17736.786</v>
+        <v>18189.93826</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>24255.53885</v>
+        <v>24380.50011</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24517.08838</v>
+        <v>24562.73555</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30534.30719</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>41825.99380999999</v>
+        <v>41911.30249</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>48004.88309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>48819.2418</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>69831.231</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>128445.96319</v>
@@ -2480,34 +2581,39 @@
         <v>289427.01096</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>173364.08015</v>
+        <v>174898.57395</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>388426.94253</v>
+        <v>401308.29593</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>278535.55742</v>
+        <v>305763.22962</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>622201.2283</v>
+        <v>669215.47688</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>840867.20215</v>
+        <v>841020.6077000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1101228.44485</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2314460.79059</v>
+        <v>2317454.4133</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1574676.09444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1581916.47758</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2568713.92</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>121815.1592</v>
@@ -2519,55 +2625,60 @@
         <v>274655.9646</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>158723.09095</v>
+        <v>159674.29306</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>355927.96196</v>
+        <v>361589.62694</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>252199.56408</v>
+        <v>275172.20358</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>587533.8959199999</v>
+        <v>617942.5949800001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>785716.40497</v>
+        <v>785869.8105199999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1039301.39156</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2172579.55167</v>
+        <v>2175573.17438</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1425504.6227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1432719.37108</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2455524.292</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6630.80399</v>
+        <v>6630.803989999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7336.136119999999</v>
+        <v>7336.13612</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>14771.04636</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>14640.9892</v>
+        <v>15224.28089</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>32498.98057</v>
+        <v>39718.66898999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26335.99334</v>
+        <v>30591.02604</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>34667.33238</v>
+        <v>51272.8819</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>55150.79718000001</v>
@@ -2579,13 +2690,18 @@
         <v>141881.23892</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>149171.47174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>149197.1065</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>113189.628</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>547865.73115</v>
@@ -2594,37 +2710,42 @@
         <v>364473.5102</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>320221.5040599999</v>
+        <v>320221.50406</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>615814.6998799999</v>
+        <v>625063.41269</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>572236.8879499999</v>
+        <v>737695.86691</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>375402.33962</v>
+        <v>719935.2421899999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>644778.67347</v>
+        <v>917954.8569</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>649922.5693</v>
+        <v>713086.1322600001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>915941.7909199999</v>
+        <v>915941.7909200001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1599222.01521</v>
+        <v>1583465.4132</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3230638.300349999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3230368.14869</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3353352.517</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>33404.18641</v>
@@ -2633,40 +2754,45 @@
         <v>223025.90525</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>734124.3728299999</v>
+        <v>734124.37283</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>82910.81406</v>
+        <v>83682.14652000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>107195.23466</v>
+        <v>111190.97741</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>311124.10595</v>
+        <v>345871.40774</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>89876.34665000001</v>
+        <v>120710.89022</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>154513.04177</v>
+        <v>154656.89203</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>184331.8577</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>197724.57474</v>
+        <v>204665.17226</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>522047.98833</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>523960.79306</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>435063.456</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>829.6764700000001</v>
+        <v>829.67647</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>835.2226800000001</v>
@@ -2684,7 +2810,7 @@
         <v>2308.75559</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1492.00985</v>
+        <v>1516.7139</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>355.02814</v>
@@ -2696,13 +2822,18 @@
         <v>3712.34541</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5059.55976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5092.49647</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1736.588</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>32574.50994</v>
@@ -2711,40 +2842,45 @@
         <v>222190.68257</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>733406.1780899999</v>
+        <v>733406.1780900001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>82537.80612000001</v>
+        <v>83309.13858</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>105561.33287</v>
+        <v>109557.07562</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>308815.35036</v>
+        <v>343562.65215</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>88384.33680000002</v>
+        <v>119194.17632</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>154158.01363</v>
+        <v>154301.86389</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>181395.56211</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>194012.22933</v>
+        <v>200952.82685</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>516988.42857</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>518868.29659</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>433326.868</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>41053.39942</v>
+        <v>41053.39941999999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>43914.59465</v>
@@ -2753,37 +2889,42 @@
         <v>277955.09802</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>485595.0081000001</v>
+        <v>486274.5373499999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>96721.41886000001</v>
+        <v>103902.60373</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>151645.41414</v>
+        <v>181980.30516</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>92084.40795000001</v>
+        <v>109822.34836</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>309544.50499</v>
+        <v>309586.77736</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>157651.90434</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>225952.41201</v>
+        <v>226945.42216</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>228460.10861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>233953.15581</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>270851.02</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8061.750480000001</v>
+        <v>8061.75048</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>4357.7655</v>
@@ -2801,7 +2942,7 @@
         <v>1850.51853</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>16639.82337</v>
+        <v>16781.62233</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>13675.92907</v>
@@ -2810,16 +2951,21 @@
         <v>13050.78181</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>13886.36041</v>
+        <v>14049.93286</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10630.68139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10635.0641</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27438.012</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1838.33965</v>
@@ -2831,112 +2977,127 @@
         <v>4676.22813</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5310.28205</v>
+        <v>5339.867579999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6727.79825</v>
+        <v>6826.86418</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9325.215099999999</v>
+        <v>9499.21768</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4877.65589</v>
+        <v>5184.98833</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5347.422699999999</v>
+        <v>5347.801759999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3294.21764</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8391.080830000001</v>
+        <v>8574.438110000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6989.421119999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6990.842269999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6163.727</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>31153.30929</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>37268.13227</v>
+        <v>37268.13226999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>271978.11132</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>478753.42281</v>
+        <v>479403.3665300001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>88000.76097</v>
+        <v>95082.87991</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>140469.68051</v>
+        <v>170630.56895</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>70566.92869</v>
+        <v>87855.7377</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>290521.15322</v>
+        <v>290563.04653</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>141306.90489</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>203674.97077</v>
+        <v>204321.05119</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>210840.0061</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>216327.24944</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>237249.281</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>540216.5181399999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>543584.8208000001</v>
+        <v>543584.8208</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>776390.77887</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>213130.50584</v>
+        <v>222471.02186</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>582710.70375</v>
+        <v>744984.2405899999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>534881.03143</v>
+        <v>883826.34477</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>642570.6121700001</v>
+        <v>928843.39876</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>494891.10608</v>
+        <v>558156.2469299999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>942621.74428</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1570994.17794</v>
+        <v>1561185.1633</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3524226.18007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3520375.785939999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3517564.953</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>87953.81471999999</v>
@@ -2948,34 +3109,39 @@
         <v>68396.74990000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>105288.5662</v>
+        <v>106878.87618</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>101741.45503</v>
+        <v>115991.29761</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>64382.86475</v>
+        <v>123369.31888</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>92377.21029</v>
+        <v>135474.54873</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>119347.72342</v>
+        <v>119755.09415</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>117315.03654</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>174774.02758</v>
+        <v>176012.69131</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>414718.22351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>417054.4539</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>469921.412</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>452262.70342</v>
@@ -2987,31 +3153,34 @@
         <v>707994.0289699999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>107841.93964</v>
+        <v>115592.14568</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>480969.24872</v>
+        <v>628992.9429800001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>470498.1666800001</v>
+        <v>760457.0258899999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>550193.40188</v>
+        <v>793368.85003</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>375543.38266</v>
+        <v>438401.15278</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>825306.70774</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1396220.15036</v>
+        <v>1385172.47199</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3109507.95656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3103321.33204</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3047643.541</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3726</v>
@@ -3041,31 +3213,34 @@
         <v>3994</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4200</v>
+        <v>4210</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4235</v>
+        <v>4257</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4389</v>
+        <v>4441</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4591</v>
+        <v>4606</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4920</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4831</v>
+        <v>5236</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5668</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>